--- a/documents/Jasper Resources.xlsx
+++ b/documents/Jasper Resources.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="27795" windowHeight="13350"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="39">
   <si>
     <t>User / Resource</t>
   </si>
@@ -87,18 +87,12 @@
     <t>CSG</t>
   </si>
   <si>
-    <t>Prinika</t>
-  </si>
-  <si>
     <t>QA Tester</t>
   </si>
   <si>
     <t>jing99joe@gmail.com</t>
   </si>
   <si>
-    <t>Ryan (JO)</t>
-  </si>
-  <si>
     <t>Joe Yin (JO)</t>
   </si>
   <si>
@@ -127,6 +121,18 @@
   </si>
   <si>
     <t>Remarks</t>
+  </si>
+  <si>
+    <t>prinika.bhan@global-csg.com</t>
+  </si>
+  <si>
+    <t>Prinika Bhan</t>
+  </si>
+  <si>
+    <t>ryan@ryanjam.es</t>
+  </si>
+  <si>
+    <t>Ryan James (JO)</t>
   </si>
 </sst>
 </file>
@@ -487,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,19 +522,19 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" t="s">
-        <v>31</v>
-      </c>
       <c r="H1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
@@ -545,16 +551,16 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="V2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -571,16 +577,16 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="V3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -597,16 +603,16 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="V4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -623,13 +629,13 @@
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -646,13 +652,13 @@
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -669,81 +675,87 @@
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>24</v>
+      <c r="C8" t="s">
+        <v>35</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E10 F2:G10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G10 E1:E10">
       <formula1>$V$2:$V$4</formula1>
     </dataValidation>
   </dataValidations>
